--- a/data/scratch/worRain.xlsx
+++ b/data/scratch/worRain.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usdr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISU\Project\SoilMove\data\statistics\flume_analysis\data\scratch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12108" windowHeight="8928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14628" windowHeight="6756"/>
   </bookViews>
   <sheets>
     <sheet name="worRain" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -867,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1753"/>
+  <dimension ref="A1:G1753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1448" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1449" sqref="E1449:E1450"/>
+    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A902" sqref="A902:F913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +881,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/data/scratch/worRain.xlsx
+++ b/data/scratch/worRain.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A902" sqref="A902:F913"/>
+    <sheetView tabSelected="1" topLeftCell="A1744" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E807" sqref="E807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
